--- a/data/resumes_scrubbed/confirmations/103_1.xlsx
+++ b/data/resumes_scrubbed/confirmations/103_1.xlsx
@@ -8,28 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/4a41d8b392a254fb/Documents/Career/Portfolio Projects/Congressional Data Scrape and Validation/data/resumes_scrubbed/confirmations/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="48" documentId="8_{888B66F6-E66A-4245-891E-E1381E99BAF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{64A94485-0327-4852-8EED-001FA8282855}"/>
+  <xr:revisionPtr revIDLastSave="78" documentId="8_{888B66F6-E66A-4245-891E-E1381E99BAF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{123AA188-A02D-4E97-AE3D-B1F9223CF309}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="102_2" sheetId="1" r:id="rId1"/>
+    <sheet name="103_1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="24">
-  <si>
-    <t>Summary</t>
-  </si>
-  <si>
-    <t xml:space="preserve">     Confirmed </t>
-  </si>
-  <si>
-    <t xml:space="preserve">     New nominations</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
   <si>
     <t xml:space="preserve">Civilian </t>
   </si>
@@ -46,15 +37,6 @@
     <t>Marine Corps</t>
   </si>
   <si>
-    <t xml:space="preserve">     Unconfirmed </t>
-  </si>
-  <si>
-    <t xml:space="preserve">     Withdrawn </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Total carried over from first session  </t>
-  </si>
-  <si>
     <t xml:space="preserve">Total confirmed </t>
   </si>
   <si>
@@ -82,16 +64,85 @@
     <t>End Date</t>
   </si>
   <si>
-    <t xml:space="preserve">     Returned at sine die adjournment</t>
-  </si>
-  <si>
     <t>Civilian (FS, PHS, CG, NOAA)</t>
   </si>
   <si>
-    <t xml:space="preserve">     Confirmed</t>
-  </si>
-  <si>
     <t>Total returned at sine die adjournment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     Civilian, New nominations</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     Civilian, Confirmed </t>
+  </si>
+  <si>
+    <t xml:space="preserve">     Civilian, Unconfirmed </t>
+  </si>
+  <si>
+    <t xml:space="preserve">     Civilian, Withdrawn </t>
+  </si>
+  <si>
+    <t xml:space="preserve">     Civilian, Returned at sine die adjournment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     Civilian (FS, PHS, CG, NOAA), New nominations</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     Civilian (FS, PHS, CG, NOAA), Confirmed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     Civilian (FS, PHS, CG, NOAA), Unconfirmed </t>
+  </si>
+  <si>
+    <t xml:space="preserve">     Air Force, New nominations</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     Air Force, Confirmed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     Air Force, Unconfirmed </t>
+  </si>
+  <si>
+    <t xml:space="preserve">     Air Force, Withdrawn </t>
+  </si>
+  <si>
+    <t xml:space="preserve">     Army, New nominations</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     Army, Confirmed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     Army, Unconfirmed </t>
+  </si>
+  <si>
+    <t xml:space="preserve">     Army, Withdrawn </t>
+  </si>
+  <si>
+    <t xml:space="preserve">     Navy, New nominations</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     Navy, Confirmed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     Navy, Unconfirmed </t>
+  </si>
+  <si>
+    <t xml:space="preserve">     Navy, Withdrawn </t>
+  </si>
+  <si>
+    <t xml:space="preserve">     Marine Corps, New nominations</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     Marine Corps, Confirmed </t>
+  </si>
+  <si>
+    <t xml:space="preserve">     Marine Corps, Unconfirmed </t>
+  </si>
+  <si>
+    <t xml:space="preserve">     Marine Corps, Withdrawn </t>
+  </si>
+  <si>
+    <t>Total new nominations</t>
   </si>
 </sst>
 </file>
@@ -645,6 +696,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -964,11 +1019,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B41"/>
+  <dimension ref="A1:B40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A42" sqref="A42"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
@@ -978,15 +1031,15 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="B2" s="2">
         <v>103</v>
@@ -994,7 +1047,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="B3" s="2">
         <v>1</v>
@@ -1002,7 +1055,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="B4" s="4">
         <v>33974</v>
@@ -1010,7 +1063,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="B5" s="4">
         <v>34297</v>
@@ -1018,12 +1071,12 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="B7" s="2">
         <v>703</v>
@@ -1031,7 +1084,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="B8" s="2">
         <v>510</v>
@@ -1039,7 +1092,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="B9" s="2">
         <v>172</v>
@@ -1047,7 +1100,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="B10" s="2">
         <v>8</v>
@@ -1063,12 +1116,12 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="B13" s="2">
         <v>2228</v>
@@ -1084,7 +1137,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="B15" s="2">
         <v>38</v>
@@ -1092,12 +1145,12 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="B17" s="3">
         <v>13741</v>
@@ -1105,7 +1158,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B18" s="3">
         <v>13736</v>
@@ -1113,7 +1166,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="B19" s="2">
         <v>4</v>
@@ -1121,7 +1174,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="B20" s="2">
         <v>1</v>
@@ -1129,12 +1182,12 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>2</v>
+        <v>28</v>
       </c>
       <c r="B22" s="3">
         <v>12714</v>
@@ -1142,7 +1195,7 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="B23" s="3">
         <v>11028</v>
@@ -1150,7 +1203,7 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>8</v>
+        <v>30</v>
       </c>
       <c r="B24" s="3">
         <v>1686</v>
@@ -1158,7 +1211,7 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="B25" s="2">
         <v>2</v>
@@ -1166,12 +1219,12 @@
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
-        <v>2</v>
+        <v>32</v>
       </c>
       <c r="B27" s="3">
         <v>11119</v>
@@ -1179,7 +1232,7 @@
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="B28" s="3">
         <v>9584</v>
@@ -1187,7 +1240,7 @@
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>8</v>
+        <v>34</v>
       </c>
       <c r="B29" s="2">
         <v>657</v>
@@ -1195,7 +1248,7 @@
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
-        <v>9</v>
+        <v>35</v>
       </c>
       <c r="B30" s="2">
         <v>878</v>
@@ -1203,12 +1256,12 @@
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>2</v>
+        <v>36</v>
       </c>
       <c r="B32" s="3">
         <v>1834</v>
@@ -1216,7 +1269,7 @@
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
-        <v>1</v>
+        <v>37</v>
       </c>
       <c r="B33" s="3">
         <v>1628</v>
@@ -1224,7 +1277,7 @@
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>8</v>
+        <v>38</v>
       </c>
       <c r="B34" s="2">
         <v>15</v>
@@ -1232,7 +1285,7 @@
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
-        <v>9</v>
+        <v>39</v>
       </c>
       <c r="B35" s="2">
         <v>191</v>
@@ -1240,46 +1293,41 @@
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
-        <v>0</v>
+        <v>40</v>
+      </c>
+      <c r="B36" s="3">
+        <v>42339</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B37" s="3">
-        <v>42339</v>
+        <v>38676</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B38" s="3">
-        <v>389676</v>
+        <v>2752</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="B39" s="3">
-        <v>2752</v>
+        <v>1078</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B40" s="3">
-        <v>1078</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A41" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B41" s="2">
+        <v>15</v>
+      </c>
+      <c r="B40" s="2">
         <v>13</v>
       </c>
     </row>

--- a/data/resumes_scrubbed/confirmations/103_1.xlsx
+++ b/data/resumes_scrubbed/confirmations/103_1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/4a41d8b392a254fb/Documents/Career/Portfolio Projects/Congressional Data Scrape and Validation/data/resumes_scrubbed/confirmations/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="78" documentId="8_{888B66F6-E66A-4245-891E-E1381E99BAF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{123AA188-A02D-4E97-AE3D-B1F9223CF309}"/>
+  <xr:revisionPtr revIDLastSave="80" documentId="8_{888B66F6-E66A-4245-891E-E1381E99BAF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5E0D3340-1AF4-4604-A5CF-CBA71BA36A02}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="103_1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
   <si>
     <t xml:space="preserve">Civilian </t>
   </si>
@@ -113,9 +113,6 @@
   </si>
   <si>
     <t xml:space="preserve">     Army, Unconfirmed </t>
-  </si>
-  <si>
-    <t xml:space="preserve">     Army, Withdrawn </t>
   </si>
   <si>
     <t xml:space="preserve">     Navy, New nominations</t>
@@ -1019,9 +1016,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B40"/>
+  <dimension ref="A1:B39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
@@ -1211,15 +1208,15 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B25" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
-        <v>3</v>
+        <v>31</v>
+      </c>
+      <c r="B26" s="3">
+        <v>11119</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
@@ -1227,15 +1224,15 @@
         <v>32</v>
       </c>
       <c r="B27" s="3">
-        <v>11119</v>
+        <v>9584</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B28" s="3">
-        <v>9584</v>
+      <c r="B28" s="2">
+        <v>657</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
@@ -1243,20 +1240,20 @@
         <v>34</v>
       </c>
       <c r="B29" s="2">
-        <v>657</v>
+        <v>878</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B30" s="2">
-        <v>878</v>
+        <v>4</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
-        <v>4</v>
+        <v>35</v>
+      </c>
+      <c r="B31" s="3">
+        <v>1834</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.3">
@@ -1264,15 +1261,15 @@
         <v>36</v>
       </c>
       <c r="B32" s="3">
-        <v>1834</v>
+        <v>1628</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B33" s="3">
-        <v>1628</v>
+      <c r="B33" s="2">
+        <v>15</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
@@ -1280,54 +1277,46 @@
         <v>38</v>
       </c>
       <c r="B34" s="2">
-        <v>15</v>
+        <v>191</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B35" s="2">
-        <v>191</v>
+      <c r="B35" s="3">
+        <v>42339</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
-        <v>40</v>
+        <v>5</v>
       </c>
       <c r="B36" s="3">
-        <v>42339</v>
+        <v>38676</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B37" s="3">
-        <v>38676</v>
+        <v>2572</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B38" s="3">
-        <v>2752</v>
+        <v>1078</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B39" s="3">
-        <v>1078</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A40" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B40" s="2">
+      <c r="B39" s="2">
         <v>13</v>
       </c>
     </row>
